--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/20/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.10300000000001</v>
+        <v>-22.0597</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.71249999999999</v>
+        <v>-21.7799</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -642,7 +642,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.086099999999997</v>
+        <v>5.113099999999998</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.08260000000001</v>
+        <v>-22.08190000000002</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -723,10 +723,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.8989</v>
+        <v>-21.8387</v>
       </c>
       <c r="B21" t="n">
-        <v>5.935800000000006</v>
+        <v>5.6298</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -740,7 +740,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>10.2624</v>
+        <v>10.0944</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.48349999999999</v>
+        <v>-20.05329999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.626200000000003</v>
+        <v>5.852000000000001</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.50089999999998</v>
+        <v>-21.77439999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.05459999999997</v>
+        <v>-21.06109999999996</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.329700000000003</v>
+        <v>6.748200000000005</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.276700000000004</v>
+        <v>5.499700000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.35479999999999</v>
+        <v>-21.41209999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.312599999999998</v>
+        <v>9.161999999999999</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -978,7 +978,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.1533</v>
+        <v>9.015600000000001</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.079</v>
+        <v>-20.113</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.693700000000002</v>
+        <v>5.332000000000006</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>7.555400000000005</v>
+        <v>7.482200000000003</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.452099999999994</v>
+        <v>5.387099999999996</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.3893</v>
+        <v>5.446999999999997</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.70099999999999</v>
+        <v>-21.7427</v>
       </c>
       <c r="B53" t="n">
-        <v>5.419200000000002</v>
+        <v>5.2485</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.947800000000003</v>
+        <v>4.797800000000001</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1227,10 +1227,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.51680000000002</v>
+        <v>-22.57360000000003</v>
       </c>
       <c r="B57" t="n">
-        <v>4.618999999999994</v>
+        <v>4.563299999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.53570000000001</v>
+        <v>-22.52800000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.77109999999998</v>
+        <v>-21.79639999999998</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.59869999999998</v>
+        <v>-21.6449</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1412,7 +1412,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>7.921700000000004</v>
+        <v>7.965500000000004</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1426,7 +1426,7 @@
         <v>-21.28</v>
       </c>
       <c r="B71" t="n">
-        <v>4.642999999999997</v>
+        <v>4.639599999999996</v>
       </c>
       <c r="C71" t="n">
         <v>-9.93</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.4552</v>
+        <v>-20.4023</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.62459999999999</v>
+        <v>-21.67919999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.124800000000002</v>
+        <v>4.964700000000001</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1650,7 +1650,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.195999999999995</v>
+        <v>5.498999999999994</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1678,7 +1678,7 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.727799999999998</v>
+        <v>4.815899999999997</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.68489999999998</v>
+        <v>-20.69489999999998</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.2808</v>
+        <v>-21.30060000000002</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.035</v>
+        <v>-22.20130000000001</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.0204</v>
+        <v>4.9384</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-21.6455</v>
+        <v>-21.7274</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
